--- a/src/data/HRMS-queries.xlsx
+++ b/src/data/HRMS-queries.xlsx
@@ -13,20 +13,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="144">
+  <si>
+    <t>EMPLOYEE</t>
+  </si>
+  <si>
+    <t>Query type</t>
+  </si>
   <si>
     <t>Query description</t>
   </si>
   <si>
-    <t>Query type</t>
-  </si>
-  <si>
     <t>Resource</t>
   </si>
   <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>SKILLS</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>PROJECT_ALLOCATION</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_SKILLS</t>
+  </si>
+  <si>
     <t>P1</t>
   </si>
   <si>
+    <t>id (p.k) - INT</t>
+  </si>
+  <si>
     <t>P2</t>
   </si>
   <si>
@@ -39,377 +63,395 @@
     <t>P5</t>
   </si>
   <si>
-    <t>Assigned</t>
+    <t>Adding new company</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST </t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>name: everest</t>
+  </si>
+  <si>
+    <t>registration_no: 123456</t>
+  </si>
+  <si>
+    <t>registration_no</t>
+  </si>
+  <si>
+    <t>address: banglore</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email: everest@gmail.com</t>
+  </si>
+  <si>
+    <t>phone_no: 1234567890</t>
+  </si>
+  <si>
+    <t>website: everest.com</t>
+  </si>
+  <si>
+    <t>emp_id - INT</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>name - VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>employee_id (f.k) - INT</t>
+  </si>
+  <si>
+    <t>registration_no (unique) -VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>start_date - DATE</t>
+  </si>
+  <si>
+    <t>website (unique) - VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>project_id (f.k) - INT</t>
+  </si>
+  <si>
+    <t>name: everest engineering</t>
+  </si>
+  <si>
+    <t>skill_id (f.k) - INT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>address - VARCHAR(70)</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>website - VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>phone_no</t>
+  </si>
+  <si>
+    <t>end_date - DATE</t>
+  </si>
+  <si>
+    <t>country - VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>Company details</t>
+  </si>
+  <si>
+    <t>level  - INT</t>
+  </si>
+  <si>
+    <t>email (unique) - VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>emp_id: 471</t>
+  </si>
+  <si>
+    <t>name: dhanalakshmi</t>
+  </si>
+  <si>
+    <t>client_id(f.k) - INT</t>
+  </si>
+  <si>
+    <t>email: dhanalakshmi@gmail.com</t>
+  </si>
+  <si>
+    <t>likely_end_date - DATE</t>
+  </si>
+  <si>
+    <t>address: brahmapuri</t>
+  </si>
+  <si>
+    <t>phone_no - VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>phone_no: 9553113446</t>
+  </si>
+  <si>
+    <t>Relationships</t>
+  </si>
+  <si>
+    <t>Update company details</t>
+  </si>
+  <si>
+    <t>Client - projects ( 1 &lt;----&gt; M)</t>
+  </si>
+  <si>
+    <t>{registration_no, name, address, phone_no}</t>
+  </si>
+  <si>
+    <t>Employee - skills ( M &lt;-----&gt; M)</t>
+  </si>
+  <si>
+    <t>Delete company</t>
+  </si>
+  <si>
+    <t>name: dhanalakshmi narala</t>
+  </si>
+  <si>
+    <t>Employee - project (M &lt;-----&gt; M)</t>
+  </si>
+  <si>
+    <t>Company-Employee(1----&gt;N)</t>
+  </si>
+  <si>
+    <t>Adding new employee</t>
+  </si>
+  <si>
+    <t>employee_skills</t>
+  </si>
+  <si>
+    <t>emp_id</t>
+  </si>
+  <si>
+    <t>skills: [Python, Java, Javascript, Node, Express]</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>skills: [Node, Express]</t>
+  </si>
+  <si>
+    <t>Employee details</t>
+  </si>
+  <si>
+    <t>company_employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET </t>
+  </si>
+  <si>
+    <t>Update employee details</t>
+  </si>
+  <si>
+    <t>{emp_id, name, email, address, phone_no}</t>
+  </si>
+  <si>
+    <t>Delete employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add employee_skills</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>name: tcs</t>
+  </si>
+  <si>
+    <t>website: tcs.com</t>
+  </si>
+  <si>
+    <t>country: India</t>
+  </si>
+  <si>
+    <t>skills (array)</t>
+  </si>
+  <si>
+    <t>List of skills of employee having</t>
+  </si>
+  <si>
+    <t>employee_skils</t>
+  </si>
+  <si>
+    <t>Delete a skills for employee</t>
+  </si>
+  <si>
+    <t>website: tcs.in</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>Adding employee to company</t>
+  </si>
+  <si>
+    <t>name: todos</t>
+  </si>
+  <si>
+    <t>start_date: 2020-04-17</t>
+  </si>
+  <si>
+    <t>end_date: 2020-05-18</t>
+  </si>
+  <si>
+    <t>List of employees in company</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>Delete employee from company</t>
+  </si>
+  <si>
+    <t>start_date: 2020-05-01</t>
+  </si>
+  <si>
+    <t>end_date: 2020-05-19</t>
+  </si>
+  <si>
+    <t>client_projects</t>
+  </si>
+  <si>
+    <t>client_name: tcs</t>
+  </si>
+  <si>
+    <t>project_name: todos</t>
   </si>
   <si>
     <t>Adding new client</t>
   </si>
   <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>website</t>
   </si>
   <si>
     <t>country</t>
   </si>
   <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POST </t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>name: everest</t>
-  </si>
-  <si>
-    <t>registration_no: 123456</t>
-  </si>
-  <si>
-    <t>address: banglore</t>
-  </si>
-  <si>
-    <t>email: everest@gmail.com</t>
-  </si>
-  <si>
-    <t>phone_no: 1234567890</t>
-  </si>
-  <si>
-    <t>website: everest.com</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>PATCH</t>
-  </si>
-  <si>
-    <t>name: everest engineering</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>emp_id: 471</t>
-  </si>
-  <si>
-    <t>name: dhanalakshmi</t>
-  </si>
-  <si>
-    <t>email: dhanalakshmi@gmail.com</t>
-  </si>
-  <si>
-    <t>address: brahmapuri</t>
-  </si>
-  <si>
-    <t>phone_no: 9553113446</t>
-  </si>
-  <si>
-    <t>name: dhanalakshmi narala</t>
-  </si>
-  <si>
-    <t>name: tcs</t>
-  </si>
-  <si>
-    <t>website: tcs.com</t>
-  </si>
-  <si>
-    <t>country: India</t>
-  </si>
-  <si>
-    <t>website: tcs.in</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>name: todos</t>
-  </si>
-  <si>
-    <t>start_date: 2020-04-17</t>
-  </si>
-  <si>
-    <t>end_date: 2020-05-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET </t>
-  </si>
-  <si>
-    <t>start_date: 2020-05-01</t>
-  </si>
-  <si>
-    <t>end_date: 2020-05-19</t>
-  </si>
-  <si>
-    <t>projects(array)</t>
-  </si>
-  <si>
-    <t>Dhanalakshmi</t>
+    <t>Client details</t>
+  </si>
+  <si>
+    <t>allocate_project</t>
   </si>
   <si>
     <t>Update client details</t>
   </si>
   <si>
+    <t>likely_end_date: 2020-05-18</t>
+  </si>
+  <si>
     <t>{name, website, country.. }</t>
   </si>
   <si>
-    <t>Client details</t>
-  </si>
-  <si>
-    <t>Bhagyalakshmi</t>
-  </si>
-  <si>
     <t>Delete</t>
   </si>
   <si>
+    <t>Adding new project</t>
+  </si>
+  <si>
+    <t>start_date: 2020-04-18</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>skillset_with_required_emp_count (object)</t>
+  </si>
+  <si>
+    <t>likely_end_date: 2020-05-17</t>
+  </si>
+  <si>
+    <t>Update project start date</t>
+  </si>
+  <si>
+    <t>emp_ids: [471]</t>
+  </si>
+  <si>
+    <t>{name, start_date, end_date, skillset(object)}</t>
+  </si>
+  <si>
+    <t>availability</t>
+  </si>
+  <si>
+    <t>Project details</t>
+  </si>
+  <si>
+    <t>date: 2020-05-19</t>
+  </si>
+  <si>
+    <t>Delete project</t>
+  </si>
+  <si>
+    <t>Add client project</t>
+  </si>
+  <si>
+    <t>client_name</t>
+  </si>
+  <si>
+    <t>project_name</t>
+  </si>
+  <si>
     <t>List of projects for particular client</t>
   </si>
   <si>
-    <t>client, project</t>
-  </si>
-  <si>
-    <t>client_name</t>
-  </si>
-  <si>
-    <t>Adding new company</t>
-  </si>
-  <si>
-    <t>registration_no</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>phone_no</t>
-  </si>
-  <si>
-    <t>Update company details</t>
-  </si>
-  <si>
-    <t>EMPLOYEE</t>
-  </si>
-  <si>
-    <t>COMPANY</t>
-  </si>
-  <si>
-    <t>PROJECT</t>
-  </si>
-  <si>
-    <t>{registration_no, name, address, phone_no}</t>
-  </si>
-  <si>
-    <t>Company details</t>
-  </si>
-  <si>
-    <t>SKILLS</t>
-  </si>
-  <si>
-    <t>CLIENT</t>
-  </si>
-  <si>
-    <t>PROJECT_ALLOCATION</t>
-  </si>
-  <si>
-    <t>EMPLOYEE_SKILLS</t>
-  </si>
-  <si>
-    <t>id (p.k) - INT</t>
-  </si>
-  <si>
-    <t>emp_id - INT</t>
-  </si>
-  <si>
-    <t>Employee details</t>
-  </si>
-  <si>
-    <t>name - VARCHAR(50)</t>
-  </si>
-  <si>
-    <t>employee_id (f.k) - INT</t>
-  </si>
-  <si>
-    <t>registration_no (unique) -VARCHAR(20)</t>
-  </si>
-  <si>
-    <t>start_date - DATE</t>
-  </si>
-  <si>
-    <t>website (unique) - VARCHAR(50)</t>
-  </si>
-  <si>
-    <t>project_id (f.k) - INT</t>
-  </si>
-  <si>
-    <t>Delete company</t>
-  </si>
-  <si>
-    <t>skill_id (f.k) - INT</t>
-  </si>
-  <si>
-    <t>address - VARCHAR(70)</t>
-  </si>
-  <si>
-    <t>website - VARCHAR(50)</t>
-  </si>
-  <si>
-    <t>end_date - DATE</t>
-  </si>
-  <si>
-    <t>country - VARCHAR(20)</t>
-  </si>
-  <si>
-    <t>level  - INT</t>
-  </si>
-  <si>
-    <t>email (unique) - VARCHAR(20)</t>
-  </si>
-  <si>
-    <t>client_id(f.k) - INT</t>
-  </si>
-  <si>
-    <t>likely_end_date - DATE</t>
-  </si>
-  <si>
-    <t>phone_no - VARCHAR(10)</t>
-  </si>
-  <si>
-    <t>Relationships</t>
-  </si>
-  <si>
-    <t>Client - projects ( 1 &lt;----&gt; M)</t>
-  </si>
-  <si>
-    <t>Employee - skills ( M &lt;-----&gt; M)</t>
-  </si>
-  <si>
-    <t>Employee - project (M &lt;-----&gt; M)</t>
-  </si>
-  <si>
-    <t>Company-Employee(1----&gt;N)</t>
-  </si>
-  <si>
-    <t>Adding new employee</t>
-  </si>
-  <si>
-    <t>emp_id</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Update employee details</t>
-  </si>
-  <si>
-    <t>{emp_id, name, email, address, phone_no}</t>
-  </si>
-  <si>
-    <t>Delete employee</t>
-  </si>
-  <si>
-    <t>Total employees in company</t>
-  </si>
-  <si>
-    <t>employee, company</t>
-  </si>
-  <si>
-    <t>company_name</t>
+    <t>Delete client project</t>
+  </si>
+  <si>
+    <t>Allocating employee for a project</t>
+  </si>
+  <si>
+    <t>likely_end_date</t>
+  </si>
+  <si>
+    <t>List of projects that a employee involved</t>
+  </si>
+  <si>
+    <t>List of employees for particular project</t>
+  </si>
+  <si>
+    <t>Update start_date of employee for a project</t>
+  </si>
+  <si>
+    <t>Update likely_end_date of employee for a project</t>
+  </si>
+  <si>
+    <t>Remove employees from project</t>
+  </si>
+  <si>
+    <t>emp_id (array)</t>
+  </si>
+  <si>
+    <t>List of project that a employee working on</t>
+  </si>
+  <si>
+    <t>employee_projects</t>
   </si>
   <si>
     <t>List of employees on bench</t>
   </si>
   <si>
-    <t>employee, project_allocation</t>
-  </si>
-  <si>
-    <t>(no parameters)</t>
+    <t xml:space="preserve">availability </t>
   </si>
   <si>
     <t>How employees will be free for particular date</t>
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>List of employees for particular project</t>
-  </si>
-  <si>
-    <t>employee, project, project_allocation</t>
-  </si>
-  <si>
-    <t>project_name</t>
-  </si>
-  <si>
-    <t>List of projects that a particular employee working on</t>
-  </si>
-  <si>
-    <t>How many employees have particular skill set</t>
-  </si>
-  <si>
-    <t>employee, skillset</t>
-  </si>
-  <si>
-    <t>skill_name</t>
-  </si>
-  <si>
-    <t>Adding new project</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>end_date</t>
-  </si>
-  <si>
-    <t>skillset_with_required_emp_count (object)</t>
-  </si>
-  <si>
-    <t>Update project start date</t>
-  </si>
-  <si>
-    <t>{name, start_date, end_date, skillset(object)}</t>
-  </si>
-  <si>
-    <t>Project details</t>
-  </si>
-  <si>
-    <t>Delete project</t>
-  </si>
-  <si>
-    <t>Allocating employee for a project</t>
-  </si>
-  <si>
-    <t>project_allocation</t>
-  </si>
-  <si>
-    <t>likely_end_date</t>
-  </si>
-  <si>
-    <t>List of projects that a employee involved</t>
-  </si>
-  <si>
-    <t>List of projects that are in progress for particular date</t>
-  </si>
-  <si>
-    <t>project, project_allocation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -425,13 +467,10 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-    </font>
-    <font/>
-    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -453,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -463,14 +502,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,133 +739,121 @@
     <col customWidth="1" min="5" max="5" width="36.29"/>
     <col customWidth="1" min="6" max="6" width="22.14"/>
     <col customWidth="1" min="7" max="7" width="39.29"/>
-    <col customWidth="1" min="9" max="9" width="26.57"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -837,97 +861,76 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>47</v>
+        <v>72</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -935,16 +938,13 @@
         <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -952,380 +952,485 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>51</v>
+        <v>70</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1342,8 +1447,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="23.29"/>
     <col customWidth="1" min="3" max="3" width="30.0"/>
-    <col customWidth="1" min="4" max="4" width="31.0"/>
+    <col customWidth="1" min="4" max="4" width="40.57"/>
     <col customWidth="1" min="5" max="5" width="30.29"/>
     <col customWidth="1" min="6" max="6" width="26.0"/>
     <col customWidth="1" min="7" max="7" width="24.71"/>
@@ -1355,98 +1461,98 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -1458,186 +1564,428 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>38</v>
+        <v>69</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1672,163 +2020,163 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
